--- a/examples/paris_branch_office.xlsx
+++ b/examples/paris_branch_office.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>network</t>
   </si>
@@ -25,7 +25,7 @@
     <t>source</t>
   </si>
   <si>
-    <t>192.168.1.0/24</t>
+    <t>192.168.0.0/23</t>
   </si>
   <si>
     <t>core</t>
@@ -37,11 +37,13 @@
     <t>Overlap with net 192.168.1.0/24 from examples/france_without_paris.xlsx:A2</t>
   </si>
   <si>
-    <t>10.0.1.0/24
-192.168.2.0/24</t>
+    <t>10.0.1.0/24</t>
   </si>
   <si>
     <t>internal network</t>
+  </si>
+  <si>
+    <t>Overlap with net 10.0.0.0/16 from examples/france_without_paris.xlsx:A4</t>
   </si>
 </sst>
 </file>
@@ -52,7 +54,7 @@
   <fonts count="2">
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="238"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
@@ -430,12 +432,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="13.625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="13.6640625"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:4">
@@ -463,7 +465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="31.5" r="3" spans="1:4">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -472,6 +474,9 @@
       </c>
       <c r="C3" t="s">
         <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/examples/paris_branch_office.xlsx
+++ b/examples/paris_branch_office.xlsx
@@ -25,16 +25,16 @@
     <t>source</t>
   </si>
   <si>
-    <t>192.168.0.0/23</t>
-  </si>
-  <si>
-    <t>core</t>
+    <t>172.16.20.0/30</t>
+  </si>
+  <si>
+    <t>vpn links to france</t>
   </si>
   <si>
     <t>infoblox</t>
   </si>
   <si>
-    <t>Overlap with net 192.168.1.0/24 from examples/france_without_paris.xlsx:A2</t>
+    <t>Overlap with net 172.16.20.0/30 from examples/france_without_paris.xlsx:A2</t>
   </si>
   <si>
     <t>10.0.1.0/24</t>
@@ -43,7 +43,7 @@
     <t>internal network</t>
   </si>
   <si>
-    <t>Overlap with net 10.0.0.0/16 from examples/france_without_paris.xlsx:A4</t>
+    <t>Overlap with net 10.0.0.0/16 from examples/france_without_paris.xlsx:A6</t>
   </si>
 </sst>
 </file>
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <charset val="238"/>
@@ -66,6 +66,24 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="11"/>
+      <sz val="12"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -86,18 +104,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -432,12 +455,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="13.6640625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="13.6640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="17"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="8.83203125"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:4">

--- a/examples/paris_branch_office.xlsx
+++ b/examples/paris_branch_office.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+  <si>
+    <t># subnet</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
   <si>
     <t>source</t>
@@ -28,7 +28,7 @@
     <t>172.16.20.0/30</t>
   </si>
   <si>
-    <t>vpn links to france</t>
+    <t>Paris vpn links to france</t>
   </si>
   <si>
     <t>infoblox</t>
@@ -40,10 +40,40 @@
     <t>10.0.1.0/24</t>
   </si>
   <si>
-    <t>internal network</t>
+    <t>Paris internal network</t>
   </si>
   <si>
     <t>Overlap with net 10.0.0.0/16 from examples/france_without_paris.xlsx:A6</t>
+  </si>
+  <si>
+    <t>192.168.1.0/26</t>
+  </si>
+  <si>
+    <t>Paris branch - core net</t>
+  </si>
+  <si>
+    <t>ipam</t>
+  </si>
+  <si>
+    <t>Overlap with net 192.168.0.0/23 from examples/france_without_paris.xlsx:A3</t>
+  </si>
+  <si>
+    <t>192.168.1.64/26</t>
+  </si>
+  <si>
+    <t>Paris branch - 1st floor</t>
+  </si>
+  <si>
+    <t>192.168.1.128/26</t>
+  </si>
+  <si>
+    <t>Paris branch - 2nd floor</t>
+  </si>
+  <si>
+    <t>192.168.1.192/26</t>
+  </si>
+  <si>
+    <t>Paris branch - 3rd floor</t>
   </si>
 </sst>
 </file>
@@ -452,16 +482,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="13.6640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="17"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="20.1640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="24"/>
     <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="8.83203125"/>
   </cols>
   <sheetData>
@@ -504,6 +534,62 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/examples/paris_branch_office.xlsx
+++ b/examples/paris_branch_office.xlsx
@@ -25,7 +25,7 @@
     <t>source</t>
   </si>
   <si>
-    <t>172.16.20.0/30</t>
+    <t># Overlap:172.16.20.0/30</t>
   </si>
   <si>
     <t>Paris vpn links to france</t>
@@ -37,7 +37,7 @@
     <t>Overlap with net 172.16.20.0/30 from examples/france_without_paris.xlsx:A2</t>
   </si>
   <si>
-    <t>10.0.1.0/24</t>
+    <t># Overlap:10.0.1.0/24</t>
   </si>
   <si>
     <t>Paris internal network</t>
@@ -46,7 +46,7 @@
     <t>Overlap with net 10.0.0.0/16 from examples/france_without_paris.xlsx:A6</t>
   </si>
   <si>
-    <t>192.168.1.0/26</t>
+    <t># Overlap:192.168.1.0/26</t>
   </si>
   <si>
     <t>Paris branch - core net</t>
@@ -58,19 +58,19 @@
     <t>Overlap with net 192.168.0.0/23 from examples/france_without_paris.xlsx:A3</t>
   </si>
   <si>
-    <t>192.168.1.64/26</t>
+    <t># Overlap:192.168.1.64/26</t>
   </si>
   <si>
     <t>Paris branch - 1st floor</t>
   </si>
   <si>
-    <t>192.168.1.128/26</t>
+    <t># Overlap:192.168.1.128/26</t>
   </si>
   <si>
     <t>Paris branch - 2nd floor</t>
   </si>
   <si>
-    <t>192.168.1.192/26</t>
+    <t># Overlap:192.168.1.192/26</t>
   </si>
   <si>
     <t>Paris branch - 3rd floor</t>
@@ -490,7 +490,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="20.1640625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="30"/>
     <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="24"/>
     <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="8.83203125"/>
   </cols>

--- a/examples/paris_branch_office.xlsx
+++ b/examples/paris_branch_office.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t># subnet</t>
   </si>
@@ -25,28 +25,22 @@
     <t>source</t>
   </si>
   <si>
-    <t># Overlap:172.16.20.0/30</t>
-  </si>
-  <si>
-    <t>Paris vpn links to france</t>
+    <t>172.16.20.0/30</t>
+  </si>
+  <si>
+    <t>Paris vpn links to France</t>
   </si>
   <si>
     <t>infoblox</t>
   </si>
   <si>
-    <t>Overlap with net 172.16.20.0/30 from examples/france_without_paris.xlsx:A2</t>
-  </si>
-  <si>
-    <t># Overlap:10.0.1.0/24</t>
+    <t>10.0.1.0/24</t>
   </si>
   <si>
     <t>Paris internal network</t>
   </si>
   <si>
-    <t>Overlap with net 10.0.0.0/16 from examples/france_without_paris.xlsx:A6</t>
-  </si>
-  <si>
-    <t># Overlap:192.168.1.0/26</t>
+    <t>192.168.1.0/26</t>
   </si>
   <si>
     <t>Paris branch - core net</t>
@@ -55,22 +49,19 @@
     <t>ipam</t>
   </si>
   <si>
-    <t>Overlap with net 192.168.0.0/23 from examples/france_without_paris.xlsx:A3</t>
-  </si>
-  <si>
-    <t># Overlap:192.168.1.64/26</t>
+    <t>192.168.1.64/26</t>
   </si>
   <si>
     <t>Paris branch - 1st floor</t>
   </si>
   <si>
-    <t># Overlap:192.168.1.128/26</t>
+    <t>192.168.1.128/26</t>
   </si>
   <si>
     <t>Paris branch - 2nd floor</t>
   </si>
   <si>
-    <t># Overlap:192.168.1.192/26</t>
+    <t>192.168.1.192/26</t>
   </si>
   <si>
     <t>Paris branch - 3rd floor</t>
@@ -485,7 +476,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -516,79 +507,67 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D2" t="s"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D3" t="s"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D4" t="s"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D5" t="s"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D6" t="s"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D7" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
